--- a/各小组产品设计情况_t2.xlsx
+++ b/各小组产品设计情况_t2.xlsx
@@ -360,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,16 +385,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>2631</v>
+        <v>3460</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -402,24 +402,24 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2632</v>
+        <v>3461</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2633</v>
+        <v>3462</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -428,41 +428,41 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2634</v>
+        <v>3463</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2635</v>
+        <v>3464</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2636</v>
+        <v>3465</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -482,12 +482,12 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>2637</v>
+        <v>3466</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2638</v>
+        <v>3467</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>2639</v>
+        <v>3468</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -538,24 +538,24 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>2640</v>
+        <v>3469</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>2641</v>
+        <v>3470</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -572,16 +572,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>2642</v>
+        <v>3471</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -589,16 +589,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>2643</v>
+        <v>3472</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -606,58 +606,58 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>2644</v>
+        <v>3473</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>2645</v>
+        <v>3474</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>2646</v>
+        <v>3475</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>2647</v>
+        <v>3476</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -674,169 +674,169 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>2648</v>
+        <v>3477</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>2649</v>
+        <v>3478</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>2650</v>
+        <v>3479</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>2651</v>
+        <v>3480</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>2652</v>
+        <v>3481</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>2653</v>
+        <v>3482</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>2654</v>
+        <v>3483</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>2655</v>
+        <v>3484</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>2656</v>
+        <v>3485</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>2657</v>
+        <v>3486</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -844,92 +844,92 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>2658</v>
+        <v>3487</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>2659</v>
+        <v>3488</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>2660</v>
+        <v>3489</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>2661</v>
+        <v>3490</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>2662</v>
+        <v>3491</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>2663</v>
+        <v>3492</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -946,24 +946,24 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>2664</v>
+        <v>3493</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>2665</v>
+        <v>3494</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -980,13 +980,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>2666</v>
+        <v>3495</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -997,256 +997,18 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>2667</v>
+        <v>3496</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
-        <v>2668</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
-        <v>2669</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41">
-        <v>2670</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
-        <v>2671</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43">
-        <v>2672</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44">
-        <v>2673</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45">
-        <v>2674</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46">
-        <v>2675</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47">
-        <v>2676</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48">
-        <v>2677</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49">
-        <v>2678</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50">
-        <v>2679</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51">
-        <v>2680</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52">
-        <v>2681</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
         <v>1</v>
       </c>
     </row>
